--- a/outputs/autoaprop.xlsx/autoapropxlsx/IQ_DOC2.XLSX
+++ b/outputs/autoaprop.xlsx/autoapropxlsx/IQ_DOC2.XLSX
@@ -139,13 +139,13 @@
     <t>JOÃO CARLOS DE OLIVEIRA CRUZ</t>
   </si>
   <si>
-    <t>JOÃO HENRIQUE DE OLIVEIRA</t>
+    <t>GABRIEL SANTIAGO DOS SANTOS</t>
   </si>
   <si>
-    <t> </t>
+    <t>LOHANNA CORADI PORTO DA SILVA</t>
   </si>
   <si>
-    <t> </t>
+    <t>JOÃO HENRIQUE DE OLIVEIRA</t>
   </si>
   <si>
     <t>291</t>
@@ -157,13 +157,13 @@
     <t>2899</t>
   </si>
   <si>
-    <t>4206</t>
+    <t>4133</t>
   </si>
   <si>
-    <t> </t>
+    <t>4163</t>
   </si>
   <si>
-    <t> </t>
+    <t>4206</t>
   </si>
   <si>
     <t>SETOR  IQ 
@@ -3532,15 +3532,15 @@
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>JOÃO HENRIQUE DE OLIVEIRA</v>
+        <v>GABRIEL SANTIAGO DOS SANTOS</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>LOHANNA CORADI PORTO DA SILVA</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
-        <v> </v>
+        <v>JOÃO HENRIQUE DE OLIVEIRA</v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>JOÃO HENRIQUE DE OLIVEIRA</v>
+        <v>GABRIEL SANTIAGO DOS SANTOS</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>LOHANNA CORADI PORTO DA SILVA</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
-        <v> </v>
+        <v>JOÃO HENRIQUE DE OLIVEIRA</v>
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
@@ -3583,15 +3583,15 @@
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>JOÃO HENRIQUE DE OLIVEIRA</v>
+        <v>GABRIEL SANTIAGO DOS SANTOS</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>LOHANNA CORADI PORTO DA SILVA</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>JOÃO HENRIQUE DE OLIVEIRA</v>
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
@@ -3607,15 +3607,15 @@
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>JOÃO HENRIQUE DE OLIVEIRA</v>
+        <v>GABRIEL SANTIAGO DOS SANTOS</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>LOHANNA CORADI PORTO DA SILVA</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>JOÃO HENRIQUE DE OLIVEIRA</v>
       </c>
     </row>
     <row r="13" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3912,15 +3912,15 @@
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>4206</v>
+        <v>4133</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>4163</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
-        <v> </v>
+        <v>4206</v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
@@ -3939,15 +3939,15 @@
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>4206</v>
+        <v>4133</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>4163</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
-        <v> </v>
+        <v>4206</v>
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
@@ -3963,15 +3963,15 @@
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>4206</v>
+        <v>4133</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>4163</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>4206</v>
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
@@ -3987,15 +3987,15 @@
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>4206</v>
+        <v>4133</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>4163</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>4206</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6617,15 +6617,15 @@
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>JOÃO HENRIQUE DE OLIVEIRA</v>
+        <v>GABRIEL SANTIAGO DOS SANTOS</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>LOHANNA CORADI PORTO DA SILVA</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v> </v>
+        <v>JOÃO HENRIQUE DE OLIVEIRA</v>
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
@@ -6642,15 +6642,15 @@
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>JOÃO HENRIQUE DE OLIVEIRA</v>
+        <v>GABRIEL SANTIAGO DOS SANTOS</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>LOHANNA CORADI PORTO DA SILVA</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v> </v>
+        <v>JOÃO HENRIQUE DE OLIVEIRA</v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="262"/>
@@ -6949,15 +6949,15 @@
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>4206</v>
+        <v>4133</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>4163</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v> </v>
+        <v>4206</v>
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
@@ -6974,15 +6974,15 @@
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>4206</v>
+        <v>4133</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>4163</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v> </v>
+        <v>4206</v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="262"/>
